--- a/Souq/src/price/Souq/excel_49_acessorios.xlsx
+++ b/Souq/src/price/Souq/excel_49_acessorios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,7516 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PULSEIRA SQUARE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-square-02-09-05-724-017.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PULSEIRA SQUARE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-square-02-09-05-724-011.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLAR MALLU</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-mallu-02-09-06-050-011.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COLAR MALIA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-malia-02-09-06-088-005.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CESTA DE PALHA DE JACINTO BAGGY</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cesta-de-palha-de-jacinto-baggy-01-01-11-155-024.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>278,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BRINCO CASSIANE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cassiane-02-09-02-855-011.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BRINCO ANJA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-anja-02-09-02-856-035.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PULSEIRA UMA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-uma-02-09-05-689-011.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PULSEIRA LORIE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lorie-02-09-05-690-017.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLAR MARQUESA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-marquesa-02-09-06-030-011.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLAR MAIDOI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maidoi-02-09-06-032-011.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BRINCO LORELEI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lorelei-02-09-02-858-011.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BRINCO LORNA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lorna-02-09-02-854-011.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BRINCO ASHLEY</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashley-02-09-02-857-035.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORDAO PARA PORTA CELULAR PEROLA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cordao-para-porta-celular-perola-02-16-03-205-035.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BRINCO CORA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cora-02-09-02-902-035.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BRINCO ROSALI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-rosali-02-09-02-901-010.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BROCHE CRISANTEMO</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/broche-crisantemo-02-16-03-207-001.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CHAVEIRO LAMOUR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-lamour-02-11-03-110-002.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CHAVEIRO LAMOUR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-lamour-02-11-03-110-006.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CLUTCH MOANA AZUL E VERMELHO TAM U</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-moana-02-08-02-041-004.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>COLAR CAETANA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-caetana-02-09-04-991-006.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>COLAR CIRA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-cira-02-09-04-990-029.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>COLAR HAIDEE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-haidee-02-09-04-992-005.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>COLAR ISAURA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-isaura-02-09-04-993-008.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>COLAR JENNY</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jenny-02-09-06-093-011.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>COLAR JUSSARA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jussara-02-09-04-994-029.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>COLAR LENI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-leni-02-09-04-988-009.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>COLAR LESLEY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-lesley-02-09-06-091-011.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>COLAR MAITE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maite-02-09-04-989-017.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>COLAR SALOME</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-salome-02-09-04-996-005.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>COLAR SARITA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-sarita-02-09-04-995-005.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MALEVICH</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-006.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MALEVICH</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-malevich-02-14-01-243-009.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELENICE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elenice-02-09-05-681-029.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELIDA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elida-02-09-05-680-008.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PULSEIRA ROSALI</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rosali-02-09-05-726-035.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BRINCO SIMONETTA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-simonetta-02-09-02-837-011.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>COLAR CLEMENCE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-clemence-02-09-06-084-006.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BRINCO SABINE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-sabine-02-09-02-897-011.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>COLAR MANON</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-manon-02-09-06-083-006.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CHAPEU BELVILLE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chapeu-belville-02-13-02-070-024.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CHAPEU BELVILLE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chapeu-belville-02-13-02-070-001.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>COLAR MEMPHIS</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-memphis-02-09-04-973-029.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BRINCO DINORAH</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dinorah-02-09-02-852-003.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BRINCO DINORAH</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dinorah-02-09-02-852-035.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>COLAR DINORAH</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dinorah-02-09-04-998-003.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>COLAR DINORAH</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dinorah-02-09-04-998-035.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>COLAR ELVIRA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-elvira-02-09-04-999-011.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>COLAR IDA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ida-02-09-04-997-013.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>COLAR YEDA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-yeda-02-09-06-001-006.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PULSEIRA ELVIRA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-elvira-02-09-05-683-011.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-008.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-005.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>COLAR HELO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helo-02-09-06-087-035.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>COLAR MARISKA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-mariska-02-09-06-076-008.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BRINCO ASHANTI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashanti-02-09-02-835-011.html</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>BRINCO ASHIA</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ashia-02-09-02-836-035.html</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BRINCO EMIKA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-emika-novo-02-09-02-832-011.html</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>BRINCO HARUKA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-haruka-02-09-02-831-011.html</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>BRINCO JAYNE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-jayne-02-09-02-834-017.html</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>BRINCO STELA</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-stela-02-09-02-833-011.html</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>COLAR KELLY</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kelly-02-09-04-972-002.html</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PULSEIRA ASHANTI</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-ashanti-02-09-05-673-011.html</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PULSEIRA JADE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-jade-02-09-05-715-006.html</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-004.html</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>COLAR JASMINE</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jasmine-02-09-04-857-029.html</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>BRINCO LITA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lita-02-09-02-877-011.html</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>COLAR GIZA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-giza-02-09-06-085-035.html</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>BRINCO BRIDA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-brida-02-09-02-895-011.html</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>BRINCO EDIE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-edie-02-09-02-876-011.html</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>BRINCO EDIE</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-edie-02-09-02-876-017.html</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BRINCO GALE</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-gale-02-09-02-875-011.html</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BRINCO GALE</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-gale-02-09-02-875-017.html</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BRINCO HEDY</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-hedy-02-09-02-893-011.html</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BRINCO KRISTELL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-kristell-02-09-02-896-022.html</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>BRINCO NISE</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nise-02-09-02-899-011.html</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>BRINCO PIAF</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-piaf-02-09-02-900-011.html</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>BRINCO POLIANA</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-poliana-02-09-02-894-011.html</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CARTEIRA ORLAN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/carteira-orlan-02-11-01-202-006.html</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CHAVEIRO BRISA</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-brisa-02-11-03-107-004.html</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CHAVEIRO BRISA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-brisa-02-11-03-107-009.html</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CHAVEIRO KUMAR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/chaveiro-kumar-02-11-03-108-003.html</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CLUTCH NAOMI</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-naomi-02-08-02-125-008.html</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>518,00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>COLAR DAYO</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-dayo-02-09-06-033-005.html</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LENCO ATIU</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-atiu-02-12-02-402-054.html</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>LENCO GILI</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-gili-02-12-02-403-054.html</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LENCO MAGGIE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-maggie-02-12-02-410-054.html</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LENCO MALDIVAS BLACK</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-maldivas-black-02-12-02-405-053.html</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LENCO MALDIVAS RED</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-maldivas-red-02-12-02-406-053.html</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LENCO PHILIPA</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-philipa-02-12-02-409-054.html</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS FIORI BLACK</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-fiori-black-02-11-02-068-054.html</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS FIORI NAVY</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-fiori-navy-02-11-02-065-054.html</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS FIORI PINK</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-fiori-pink-02-11-02-067-054.html</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS FIORI YELLOW</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-fiori-yellow-02-11-02-066-054.html</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PULSEIRA ADALGISA</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-adalgisa-02-09-05-675-011.html</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PULSEIRA BINTU</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-bintu-02-09-05-712-002.html</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PULSEIRA BINTU</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-bintu-02-09-05-712-008.html</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PULSEIRA CLAUDETE</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-claudete-02-09-05-676-017.html</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PULSEIRA INARA</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-inara-02-09-05-692-011.html</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PULSEIRA JUMA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-juma-02-09-05-713-008.html</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PULSEIRA KIKI</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kiki-02-09-05-674-011.html</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>138,00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PULSEIRA LATOYA</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-latoya-02-09-05-693-011.html</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PULSEIRA NIARA</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-niara-02-09-05-695-011.html</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-005.html</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-006.html</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PULSEIRA NITA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-nita-02-09-05-700-016.html</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PULSEIRA ODETE</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-odete-02-09-05-716-011.html</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PULSEIRA TULA</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-tula-02-09-05-677-011.html</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TIARA ANA MARIA BLACK</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/tiara-ana-maria-black-02-16-03-196-054.html</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TIARA ANA MARIA GREEN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/tiara-ana-maria-green-02-16-03-197-054.html</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TIARA ANA MARIA OFF</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/tiara-ana-maria-off-02-16-03-198-054.html</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>BRINCO ELZA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-elza-02-09-02-861-011.html</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>BRINCO ELZA</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-elza-02-09-02-861-017.html</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BRINCO NARA</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nara-02-09-02-860-017.html</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>COLAR CONCORDIA</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-concordia-02-09-06-038-056.html</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>COLAR GINEVRA</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ginevra-02-09-06-040-017.html</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>288,00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>PULSEIRA MARILIA</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-marilia-02-09-05-687-008.html</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>PULSEIRA ZILAH</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-zilah-02-09-05-688-011.html</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PULSEIRA ZILAH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-zilah-02-09-05-688-017.html</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>BRINCO COQUEIRAL</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-coqueiral-02-09-02-851-006.html</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BRINCO LYRA</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-lyra-02-09-02-850-029.html</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>COLAR ALINA</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-alina-02-09-04-983-017.html</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>COLAR ADELINA</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-adelina-02-09-04-981-002.html</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>COLAR ADI</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-adi-02-09-04-987-003.html</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>COLAR KENYA</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kenya-02-09-04-986-004.html</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>COLAR KENYA</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kenya-02-09-04-986-008.html</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>COLAR MAGDALENA</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-magdalena-02-09-04-985-004.html</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>COLAR MATILDA</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-matilda-02-09-04-984-006.html</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>COLAR XENIA</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-xenia-02-09-04-982-002.html</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>PULSEIRA MERCIA</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-mercia-02-09-05-678-002.html</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>PULSEIRA NEUSA</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-neusa-02-09-05-679-003.html</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>COLAR ANALU</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-analu-02-09-04-853-011.html</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>COLAR PACIFICA</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-pacifica-02-09-06-081-010.html</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CUTCH MAURA</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/cutch-maura-02-08-02-124-007.html</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>PORTA ÓCULOS BALI</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-oculos-bali-02-11-07-001-020.html</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>BRINCO ANATÓLIA</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-anatolia-02-09-06-082-011.html</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>BRINCO LUZ</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-luz-02-09-02-898-011.html</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>DECORATIVO DE RATTAN CAMERA COM ALÇA</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/decorativo-de-rattan-camera-com-alca-01-01-14-373-024.html</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>268,00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PULSEIRA ARITANA</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-aritana-02-09-05-660-054.html</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>COLAR YANDRA</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-yandra-02-09-04-937-054.html</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>BRINCO YANDRA</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-yandra-02-09-02-796-054.html</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>BRINCO JOSIE</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-daria-02-09-02-765-035.html</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>COLAR AYSHA</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-aysha-02-09-04-728-001.html</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>BRINCO KEFERA</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-celestia-02-09-02-803-004.html</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>COLAR DRICA</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-valeria-02-09-04-898-004.html</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>COLAR DRICA</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-cuore-02-09-04-898-006.html</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>COLAR CUORE</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-zaya-02-09-04-897-052.html</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>COLAR ZAHARA</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-drica-02-09-04-899-011.html</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>COLAR TIFFANY</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-trudy-02-09-04-968-011.html</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>BRINCO MARGARETES</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-josie-02-09-02-767-011.html</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>COLAR PISCIS</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-aili-02-09-04-911-016.html</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>COLAR PHOENIX</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ailika-02-09-04-912-005.html</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>248,00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>COLAR DARLA</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-darla-02-09-04-913-002.html</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>COLAR DARLINE</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-phoenix-02-09-04-914-006.html</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>COLAR ANAHI</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-grazia-02-09-04-942-005.html</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>COLAR POTIRA</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-maiara-02-09-04-943-009.html</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>COLAR RELICÁRIO ANA LUIZA</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-relicario-ana-luiza-02-09-04-959-011.html</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>LENÇO ORIANA</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-oriana-of-02-12-02-382-054.html</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PASHMINA AYSHA</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-aysha-02-12-05-023-054.html</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-002.html</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-007.html</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-035.html</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PORTA-JOIAS LIAM</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portajoias-liam-02-16-03-044-006.html</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PORTAJOIAS LIAM</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portajoias-liam-02-16-03-044-009.html</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>238,00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>GOLA NATALIA</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/gola-natalia-02-33-01-008-054.html</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>GOLA ANASTACIA</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/gola-anastacia-02-33-01-009-042.html</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CLUTCH LUISA</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-055.html</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CLUTCH LUISA</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-mariel-02-08-02-121-002.html</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>168,00</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>BRINCO PISCIS</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dietrich-02-09-02-771-004.html</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>198,00</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-005.html</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-004.html</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-009.html</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NECESSAIRE SHANGHAI MULTI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-shanghai-multi-02-07-01-101-243.html</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>PORTA MOEDA MANJU</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portamoeda-manju-novo-02-11-02-041-034.html</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>38,00</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>BRINCO FEITICEIRA</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-feiticeira-02-09-02-529-008.html</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>BRINCO TALAMANCAS</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-talamancas-02-09-02-527-017.html</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>BOLSA AMOUR</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-amour-02-08-04-022-003.html</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>BRINCO SHERAZARDE</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-sherazarde-02-09-02-648-008.html</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>BRINCO KECIL</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-kecil-marrom-02-09-02-427-008.html</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>BRINCO WAIKIKI</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-waikiki-02-09-02-543-011.html</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>BRINCO ESTHER</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-esther-02-09-02-625-028.html</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>BRINCO BUZIOS</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-buzios-02-09-02-562-007.html</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PASHMINA PENELOPE</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pashmina-penelope-02-12-05-032-043.html</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>BOLSA BISOU</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-bisou-02-08-04-024-004.html</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>BOLSA BONHEUR</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/bolsa-bonheur-02-08-04-023-029.html</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>BRINCO ESTHER</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-esther-02-09-02-625-029.html</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BRINCO INDAIA</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-indaia-02-09-02-531-006.html</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>BRINCO JUDITH</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-judith-02-09-02-624-011.html</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>BRINCO JULIETE</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-juliete-02-09-02-530-005.html</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>BRINCO BUZIOS</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-buzios-02-09-02-562-006.html</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PULSEIRA KAILUA</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kailua-02-09-05-564-006.html</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>PORTAMOEDAS CACO</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portamoedas-caco-02-11-02-039-007.html</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>28,00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>COLAR MADURAI</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-madurai-02-09-04-798-011.html</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>BRINCO IRACEMA</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-iracema-02-09-02-538-011.html</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>BRINCO SAUNDERS</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-saunders-02-09-02-565-017.html</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>BRINCO DYANA</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dyana-02-09-02-605-004.html</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>BRINCO UDAIPUR</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-udaipur-02-09-02-589-012.html</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>BRINCO UDAIPUR</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-udaipur-02-09-02-589-008.html</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>BRINCO NEREIDA</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-nereida-02-09-02-612-011.html</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>PORTAMOEDA MAINA</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portamoeda-maina-02-11-02-040-034.html</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>CLUTCH JOINVILLE</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-joinville-02-08-02-104-054.html</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>BRINCO AMIRA</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-amira-02-09-02-642-011.html</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>BRINCO CEDRO</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cedro-02-09-02-554-006.html</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>BRINCO CEDRO</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-cedro-02-09-02-554-007.html</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>BRINCO RUTH</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-ruth-02-09-02-627-011.html</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>BRINCO DYANA</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-dyana-02-09-02-605-008.html</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>BRINCO CALABASSA</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-calabassa-02-09-02-522-006.html</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>PORTA MOEDAS PADANG</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/porta-moedas-padang-02-11-02-061-020.html</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>LENCO SORAIA</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/lenco-soraia-02-12-01-098-054.html</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>88,00</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>BRINCO TAILANDIA MAR</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-tailandia-mar-02-09-02-431-008.html</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>BRINCO ARMACAO</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-armacao-02-09-02-535-004.html</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>BRINCO BOULDERS MARR</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-boulders-marr-02-09-02-434-008.html</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>BRINCO GAROPABA</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-garopaba-02-09-02-551-001.html</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>PULSEIRA LANIKAI</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lanikai-02-09-05-565-003.html</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>PULSEIRA LEAH</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-leah-02-09-05-598-011.html</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>NECESSAIRE MACEIO</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/necessaire-maceio-02-14-01-235-001.html</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>CLUTCH ITAJAI</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/clutch-itajai-02-08-02-108-003.html</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>PULSEIRA VADELLA</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-vadella-02-09-05-567-003.html</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>PULSEIRA LANIKAI</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-lanikai-02-09-05-565-002.html</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>PULSEIRA KAILUA</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-kailua-02-09-05-564-029.html</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>BRINCO INDAIA</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-indaia-02-09-02-531-002.html</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>PULSEIRA REBECCA</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rebecca-02-09-05-597-002.html</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>BRINCO SAMARA</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-samara-02-09-02-626-002.html</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>78,00</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>COLAR VALLE NEVADO CQUI</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-valle-nevado-cqui-02-09-04-658-021.html</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>PORTAMOEDA CAMEL</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/portamoeda-camel-02-11-02-042-012.html</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>BRINCO SOHO TAM</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-soho-tam-02-09-02-460-007.html</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>38,00</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>COLAR BORA BORA DOURADO</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-bora-bora-dourado-02-09-04-672-011.html</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>128,00</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>PULSEIRA REBECCA</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/pulseira-rebecca-02-09-05-597-006.html</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/acessorios.html?p=3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>BRINCO BROOKLYN PRET</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/brinco-brooklyn-pret-02-09-02-462-002.html</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
